--- a/biology/Botanique/Polypodiacées/Polypodiacées.xlsx
+++ b/biology/Botanique/Polypodiacées/Polypodiacées.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Polypodiac%C3%A9es</t>
+          <t>Polypodiacées</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des Polypodiaceae (ou Polypodiacées) regroupe des fougères à port très divers. 
 La famille compte environ 50 genres avec environ 1 000 espèces. La plupart sont épiphytes ou épilithes, rarement terrestres poussant sur le sol.
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Polypodiac%C3%A9es</t>
+          <t>Polypodiacées</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,7 +526,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom vient du genre type Polypodium, dérivé du grec πολύς / polys, beaucoup, et ποδιών / podion, pieds.
 (podion), pieds ; littéralement « à pieds multiples », en référence aux rhizomes ramifiés.
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Polypodiac%C3%A9es</t>
+          <t>Polypodiacées</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les anciennes familles des Drynariaceae, Grammitidaceae, Gymnogrammitidaceae, Loxogrammaceae, Platyceriaceae, Pleursoriopsidaceae sont incluses aujourd'hui dans les Polypodiaceae.
 </t>
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Polypodiac%C3%A9es</t>
+          <t>Polypodiacées</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,7 +593,9 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Acrosorus (en)
